--- a/SCBAA/2017/NIR.xlsx
+++ b/SCBAA/2017/NIR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\Desktop\FlaskTuts\application\SCBAA\2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084140E3-8BAB-4BA2-B28F-DAA2CCB09992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E536FACF-37F8-4E31-A57B-98E033EF6024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="14625" windowHeight="12540" firstSheet="5" activeTab="6" xr2:uid="{A971EB59-B46A-4058-A1EF-3E3997D96A2E}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" firstSheet="9" activeTab="12" xr2:uid="{A971EB59-B46A-4058-A1EF-3E3997D96A2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Bacolod" sheetId="1" r:id="rId1"/>
@@ -2408,7 +2408,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="F17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2533,7 +2533,6 @@
         <v>56</v>
       </c>
       <c r="E11" s="55">
-        <f>564782.29+3870012.08</f>
         <v>4434794.37</v>
       </c>
     </row>
@@ -2545,7 +2544,6 @@
         <v>55</v>
       </c>
       <c r="E12" s="55">
-        <f>11500+141720+5568092.27+803459.91+6352.2</f>
         <v>6531124.3799999999</v>
       </c>
     </row>
@@ -2557,7 +2555,6 @@
         <v>54</v>
       </c>
       <c r="E13" s="56">
-        <f>108900+891676+4770+2091237.66+620378.6</f>
         <v>3716962.2600000002</v>
       </c>
     </row>
@@ -2569,7 +2566,6 @@
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="13">
-        <f>SUM(E11:E13)</f>
         <v>14682881.01</v>
       </c>
     </row>
@@ -2590,7 +2586,6 @@
         <v>51</v>
       </c>
       <c r="E16" s="55">
-        <f>813931.02+188228+195280.08+5566.5</f>
         <v>1203005.6000000001</v>
       </c>
     </row>
@@ -2602,7 +2597,6 @@
         <v>50</v>
       </c>
       <c r="E17" s="55">
-        <f>531225+859406+62691+2056833.75+258917.92</f>
         <v>3769073.67</v>
       </c>
     </row>
@@ -2614,7 +2608,6 @@
         <v>49</v>
       </c>
       <c r="E18" s="56">
-        <f>34725+910689.02</f>
         <v>945414.02</v>
       </c>
     </row>
@@ -2626,7 +2619,6 @@
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="13">
-        <f>SUM(E16:E18)</f>
         <v>5917493.2899999991</v>
       </c>
     </row>
@@ -2817,7 +2809,6 @@
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="13">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>619479793.27999985</v>
       </c>
     </row>
@@ -3394,7 +3385,6 @@
       </c>
       <c r="D93" s="17"/>
       <c r="E93" s="7">
-        <f>SUM(E41:E92)</f>
         <v>530455375.82999998</v>
       </c>
     </row>
@@ -3569,7 +3559,6 @@
         <v>1</v>
       </c>
       <c r="E111" s="2">
-        <f>SUM(E96,E98,E100,E102,E104,E106,E108,E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -3581,7 +3570,6 @@
       <c r="C112" s="37"/>
       <c r="D112" s="37"/>
       <c r="E112" s="1">
-        <f>SUM(E93,E111)</f>
         <v>530455375.82999998</v>
       </c>
     </row>
@@ -4792,7 +4780,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="F20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4950,7 +4938,6 @@
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="13">
-        <f>SUM(E11:E13)</f>
         <v>34008503.57</v>
       </c>
     </row>
@@ -4971,7 +4958,6 @@
         <v>51</v>
       </c>
       <c r="E16" s="51">
-        <f>9991163.95+177450+19963565.6</f>
         <v>30132179.550000001</v>
       </c>
     </row>
@@ -4994,7 +4980,6 @@
         <v>49</v>
       </c>
       <c r="E18" s="52">
-        <f>181236.47+4027807.5</f>
         <v>4209043.97</v>
       </c>
     </row>
@@ -5006,7 +4991,6 @@
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="13">
-        <f>SUM(E16:E18)</f>
         <v>56818514.340000004</v>
       </c>
     </row>
@@ -5197,7 +5181,6 @@
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="13">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>730714130.20999992</v>
       </c>
     </row>
@@ -5774,7 +5757,6 @@
       </c>
       <c r="D93" s="17"/>
       <c r="E93" s="7">
-        <f>SUM(E41:E92)</f>
         <v>660771283.20000005</v>
       </c>
     </row>
@@ -5949,7 +5931,6 @@
         <v>1</v>
       </c>
       <c r="E111" s="2">
-        <f>SUM(E96,E98,E100,E102,E104,E106,E108,E110)</f>
         <v>24869573.890000001</v>
       </c>
     </row>
@@ -5961,7 +5942,6 @@
       <c r="C112" s="37"/>
       <c r="D112" s="37"/>
       <c r="E112" s="1">
-        <f>SUM(E93,E111)</f>
         <v>685640857.09000003</v>
       </c>
     </row>
@@ -5982,8 +5962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE004D9-56A2-4A12-833A-866A3A93B381}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6108,7 +6088,6 @@
         <v>56</v>
       </c>
       <c r="E11" s="49">
-        <f>19865798.04+63111945.38</f>
         <v>82977743.420000002</v>
       </c>
     </row>
@@ -6142,7 +6121,6 @@
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="13">
-        <f>SUM(E11:E13)</f>
         <v>122999829.48999999</v>
       </c>
     </row>
@@ -6185,7 +6163,6 @@
         <v>49</v>
       </c>
       <c r="E18" s="50">
-        <f>3988362.37+268608.48</f>
         <v>4256970.8499999996</v>
       </c>
     </row>
@@ -6197,7 +6174,6 @@
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="13">
-        <f>SUM(E16:E18)</f>
         <v>141141984.25999999</v>
       </c>
     </row>
@@ -6388,7 +6364,6 @@
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="13">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1186487484.0699999</v>
       </c>
     </row>
@@ -6487,7 +6462,6 @@
         <v>25</v>
       </c>
       <c r="E47" s="49">
-        <f>3446800+20728920.93</f>
         <v>24175720.93</v>
       </c>
     </row>
@@ -6966,7 +6940,6 @@
       </c>
       <c r="D93" s="17"/>
       <c r="E93" s="7">
-        <f>SUM(E41:E92)</f>
         <v>782442265.18999994</v>
       </c>
     </row>
@@ -7141,7 +7114,6 @@
         <v>1</v>
       </c>
       <c r="E111" s="2">
-        <f>SUM(E96,E98,E100,E102,E104,E106,E108,E110)</f>
         <v>95709701.929999992</v>
       </c>
     </row>
@@ -7153,7 +7125,6 @@
       <c r="C112" s="37"/>
       <c r="D112" s="37"/>
       <c r="E112" s="1">
-        <f>SUM(E93,E111)</f>
         <v>878151967.11999989</v>
       </c>
     </row>
@@ -13125,7 +13096,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="F15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13250,7 +13221,6 @@
         <v>56</v>
       </c>
       <c r="E11" s="65">
-        <f>34715289.48+24060910.2</f>
         <v>58776199.679999992</v>
       </c>
     </row>
@@ -13273,7 +13243,6 @@
         <v>54</v>
       </c>
       <c r="E13" s="66">
-        <f>5013000.3+1560040.95</f>
         <v>6573041.25</v>
       </c>
     </row>
@@ -13285,7 +13254,6 @@
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="13">
-        <f>SUM(E11:E13)</f>
         <v>84137519.579999983</v>
       </c>
     </row>
@@ -13339,7 +13307,6 @@
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="13">
-        <f>SUM(E16:E18)</f>
         <v>57248421.360000007</v>
       </c>
     </row>
@@ -13530,7 +13497,6 @@
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="13">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>866958619.8900001</v>
       </c>
     </row>
@@ -13629,7 +13595,6 @@
         <v>25</v>
       </c>
       <c r="E47" s="65">
-        <f>32355701.97+20026873.45</f>
         <v>52382575.420000002</v>
       </c>
     </row>
@@ -13641,7 +13606,6 @@
         <v>2</v>
       </c>
       <c r="E48" s="65">
-        <f>1283720+1785000</f>
         <v>3068720</v>
       </c>
     </row>
@@ -14109,7 +14073,6 @@
       </c>
       <c r="D93" s="17"/>
       <c r="E93" s="7">
-        <f>SUM(E41:E92)</f>
         <v>779710752.10000002</v>
       </c>
     </row>
@@ -14284,7 +14247,6 @@
         <v>1</v>
       </c>
       <c r="E111" s="2">
-        <f>SUM(E96,E98,E100,E102,E104,E106,E108,E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -14296,7 +14258,6 @@
       <c r="C112" s="37"/>
       <c r="D112" s="37"/>
       <c r="E112" s="1">
-        <f>SUM(E93,E111)</f>
         <v>779710752.10000002</v>
       </c>
     </row>
@@ -16695,8 +16656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92039AA7-BBDF-4581-BC22-38FC06412076}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16821,7 +16782,6 @@
         <v>56</v>
       </c>
       <c r="E11" s="62">
-        <f>25657823.5-3153779.53+1255738.32</f>
         <v>23759782.289999999</v>
       </c>
     </row>
@@ -16833,7 +16793,6 @@
         <v>55</v>
       </c>
       <c r="E12" s="62">
-        <f>22311552.44+150795+136950+29350</f>
         <v>22628647.440000001</v>
       </c>
     </row>
@@ -16845,7 +16804,6 @@
         <v>54</v>
       </c>
       <c r="E13" s="63">
-        <f>16900+2372694.04+86134.35+2714758.74+349725.96+64950.09</f>
         <v>5605163.1800000006</v>
       </c>
     </row>
@@ -16857,7 +16815,6 @@
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="13">
-        <f>SUM(E11:E13)</f>
         <v>51993592.910000004</v>
       </c>
     </row>
@@ -16878,7 +16835,6 @@
         <v>51</v>
       </c>
       <c r="E16" s="62">
-        <f>3943373+353428+542955+1161907.71+338810+598996.1+419515+401200+2065+400+6765</f>
         <v>7769414.8099999996</v>
       </c>
     </row>
@@ -16890,7 +16846,6 @@
         <v>50</v>
       </c>
       <c r="E17" s="62">
-        <f>3100+391084.95+4312752.61+3100+5665459.41+1204229.9+129380+1007930+236265+548160.3</f>
         <v>13501462.170000002</v>
       </c>
     </row>
@@ -16913,7 +16868,6 @@
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="13">
-        <f>SUM(E16:E18)</f>
         <v>22513272.990000002</v>
       </c>
     </row>
@@ -17104,7 +17058,6 @@
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="13">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>921677786.27999997</v>
       </c>
     </row>
@@ -17681,7 +17634,6 @@
       </c>
       <c r="D93" s="17"/>
       <c r="E93" s="7">
-        <f>SUM(E41:E92)</f>
         <v>752229575.24000001</v>
       </c>
     </row>
@@ -17856,7 +17808,6 @@
         <v>1</v>
       </c>
       <c r="E111" s="2">
-        <f>SUM(E96,E98,E100,E102,E104,E106,E108,E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -17868,7 +17819,6 @@
       <c r="C112" s="37"/>
       <c r="D112" s="37"/>
       <c r="E112" s="1">
-        <f>SUM(E93,E111)</f>
         <v>752229575.24000001</v>
       </c>
     </row>
@@ -19078,7 +19028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C676B82-52CB-4B77-8FE6-3E0B3296CD85}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
